--- a/datastatic/datasets/online/SDG11_Modalsplit_passenger_transport_Trains_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/SDG11_Modalsplit_passenger_transport_Trains_EUROSTAT_2014.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
   <si>
     <t>original_title</t>
   </si>
@@ -55,21 +55,21 @@
     <t>long_indicator_description$en$text</t>
   </si>
   <si>
+    <t>This indicator is defined as the percentage share of each mode of transport in total inland transport, expressed in passenger-kilometres (pkm). It is based on transport by passenger cars, buses and coaches, and trains. All data should be based on movements on national territory, regardless of the nationality of the vehicle. However, the data collection methodology is not harmonised at the EU level.</t>
+  </si>
+  <si>
+    <t>long_indicator_description$en$baseunit</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>long_indicator_description$de$text</t>
+  </si>
+  <si>
     <t>Dieser Indikator ist als der Prozentanteil von Transportmitteln am kompletten Inlandstransport in Fahrgastkilometern definiert. Transportmittel sind Autos, Busse und Züge. Die Daten sollen nur Fahrten auf nationalem Grund, unabhängig der Herkunft des Fahrzeugs, einbeziehen. Dennoch ist die Methode der Datensammlung auf EU-Ebene nicht vereinheitlicht.</t>
   </si>
   <si>
-    <t>long_indicator_description$en$baseunit</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>long_indicator_description$de$text</t>
-  </si>
-  <si>
-    <t>This indicator is defined as the percentage share of each mode of transport in total inland transport, expressed in passenger-kilometres (pkm). It is based on transport by passenger cars, buses and coaches, and trains. All data should be based on movements on national territory, regardless of the nationality of the vehicle. However, the data collection methodology is not harmonised at the EU level.</t>
-  </si>
-  <si>
     <t>long_indicator_description$de$baseunit</t>
   </si>
   <si>
@@ -187,304 +187,91 @@
     <t>Belgium</t>
   </si>
   <si>
-    <t>7,7</t>
-  </si>
-  <si>
-    <t>7,8</t>
-  </si>
-  <si>
     <t>Bulgaria</t>
   </si>
   <si>
-    <t>2,5</t>
-  </si>
-  <si>
-    <t>2,9</t>
-  </si>
-  <si>
-    <t>3,5</t>
-  </si>
-  <si>
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>8,4</t>
-  </si>
-  <si>
-    <t>8,5</t>
-  </si>
-  <si>
-    <t>8,3</t>
-  </si>
-  <si>
-    <t>7,6</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
-    <t>10,1</t>
-  </si>
-  <si>
-    <t>10,3</t>
-  </si>
-  <si>
-    <t>10,2</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
-    <t>8,9</t>
-  </si>
-  <si>
-    <t>8,2</t>
-  </si>
-  <si>
     <t>Estonia</t>
   </si>
   <si>
-    <t>1,9</t>
-  </si>
-  <si>
-    <t>1,6</t>
-  </si>
-  <si>
-    <t>1,8</t>
-  </si>
-  <si>
     <t>Ireland</t>
   </si>
   <si>
-    <t>2,7</t>
-  </si>
-  <si>
-    <t>2,8</t>
-  </si>
-  <si>
     <t>Greece</t>
   </si>
   <si>
-    <t>0,9</t>
-  </si>
-  <si>
-    <t>0,7</t>
-  </si>
-  <si>
-    <t>0,8</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
-    <t>6,5</t>
-  </si>
-  <si>
-    <t>5,6</t>
-  </si>
-  <si>
     <t>France</t>
   </si>
   <si>
-    <t>9,3</t>
-  </si>
-  <si>
-    <t>9,4</t>
-  </si>
-  <si>
-    <t>9,5</t>
-  </si>
-  <si>
     <t>Croatia</t>
   </si>
   <si>
-    <t>3,1</t>
-  </si>
-  <si>
-    <t>4,9</t>
-  </si>
-  <si>
     <t>Italy</t>
   </si>
   <si>
-    <t>6,3</t>
-  </si>
-  <si>
-    <t>6,4</t>
-  </si>
-  <si>
-    <t>5,8</t>
-  </si>
-  <si>
     <t>Latvia</t>
   </si>
   <si>
-    <t>4,1</t>
-  </si>
-  <si>
-    <t>5,1</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
     <t>Luxembourg</t>
   </si>
   <si>
-    <t>4,3</t>
-  </si>
-  <si>
-    <t>4,8</t>
-  </si>
-  <si>
-    <t>4,6</t>
-  </si>
-  <si>
-    <t>4,4</t>
-  </si>
-  <si>
     <t>Hungary</t>
   </si>
   <si>
-    <t>9,9</t>
-  </si>
-  <si>
     <t>Netherlands</t>
   </si>
   <si>
-    <t>9,7</t>
-  </si>
-  <si>
-    <t>10,5</t>
-  </si>
-  <si>
-    <t>10,9</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
-    <t>12,1</t>
-  </si>
-  <si>
-    <t>12,2</t>
-  </si>
-  <si>
-    <t>11,8</t>
-  </si>
-  <si>
-    <t>11,3</t>
-  </si>
-  <si>
     <t>Poland</t>
   </si>
   <si>
-    <t>6,2</t>
-  </si>
-  <si>
-    <t>6,7</t>
-  </si>
-  <si>
-    <t>6,9</t>
-  </si>
-  <si>
     <t>Portugal</t>
   </si>
   <si>
-    <t>4,2</t>
-  </si>
-  <si>
-    <t>4,5</t>
-  </si>
-  <si>
     <t>Romania</t>
   </si>
   <si>
-    <t>5,5</t>
-  </si>
-  <si>
     <t>Slovenia</t>
   </si>
   <si>
-    <t>2,1</t>
-  </si>
-  <si>
-    <t>2,3</t>
-  </si>
-  <si>
     <t>Slovakia</t>
   </si>
   <si>
-    <t>7,3</t>
-  </si>
-  <si>
-    <t>7,1</t>
-  </si>
-  <si>
     <t>Finland</t>
   </si>
   <si>
-    <t>5,3</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
-    <t>9,2</t>
-  </si>
-  <si>
-    <t>9,1</t>
-  </si>
-  <si>
-    <t>8,8</t>
-  </si>
-  <si>
     <t>UK</t>
   </si>
   <si>
-    <t>8,1</t>
-  </si>
-  <si>
-    <t>7,9</t>
-  </si>
-  <si>
     <t>Norway</t>
   </si>
   <si>
     <t>Switzerland</t>
   </si>
   <si>
-    <t>17,3</t>
-  </si>
-  <si>
-    <t>17,1</t>
-  </si>
-  <si>
-    <t>17,2</t>
-  </si>
-  <si>
-    <t>17,6</t>
-  </si>
-  <si>
     <t>Macedonia</t>
   </si>
   <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>1,5</t>
-  </si>
-  <si>
     <t>Turkey</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>1,7</t>
-  </si>
-  <si>
-    <t>2,4</t>
   </si>
 </sst>
 </file>
@@ -904,65 +691,65 @@
       <c r="A38" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>58</v>
+      <c r="B38" s="12">
+        <v>7.7</v>
+      </c>
+      <c r="C38" s="12">
+        <v>7.7</v>
+      </c>
+      <c r="D38" s="12">
+        <v>7.8</v>
+      </c>
+      <c r="E38" s="12">
+        <v>7.7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="B39" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="C39" s="12">
+        <v>2.9</v>
       </c>
       <c r="D39" s="12">
         <v>3.0</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>63</v>
+      <c r="E39" s="12">
+        <v>3.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>68</v>
+        <v>59</v>
+      </c>
+      <c r="B40" s="12">
+        <v>8.4</v>
+      </c>
+      <c r="C40" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="D40" s="12">
+        <v>8.3</v>
+      </c>
+      <c r="E40" s="12">
+        <v>7.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>72</v>
+        <v>60</v>
+      </c>
+      <c r="B41" s="12">
+        <v>10.1</v>
+      </c>
+      <c r="C41" s="12">
+        <v>10.3</v>
+      </c>
+      <c r="D41" s="12">
+        <v>10.2</v>
       </c>
       <c r="E41" s="12">
         <v>10.0</v>
@@ -970,322 +757,322 @@
     </row>
     <row r="42">
       <c r="A42" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>75</v>
+        <v>61</v>
+      </c>
+      <c r="B42" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="C42" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="D42" s="12">
+        <v>8.9</v>
+      </c>
+      <c r="E42" s="12">
+        <v>8.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>77</v>
+        <v>62</v>
+      </c>
+      <c r="B43" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="C43" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="D43" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="E43" s="12">
+        <v>1.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="B44" s="12">
+        <v>2.9</v>
+      </c>
+      <c r="C44" s="12">
+        <v>2.7</v>
+      </c>
+      <c r="D44" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="E44" s="12">
+        <v>2.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>86</v>
+        <v>64</v>
+      </c>
+      <c r="B45" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C45" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="E45" s="12">
+        <v>0.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>88</v>
+        <v>65</v>
+      </c>
+      <c r="B46" s="12">
+        <v>6.5</v>
       </c>
       <c r="C46" s="12">
         <v>6.0</v>
       </c>
-      <c r="D46" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>89</v>
+      <c r="D46" s="12">
+        <v>5.6</v>
+      </c>
+      <c r="E46" s="12">
+        <v>5.6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>91</v>
+        <v>66</v>
+      </c>
+      <c r="B47" s="12">
+        <v>9.3</v>
+      </c>
+      <c r="C47" s="12">
+        <v>9.4</v>
+      </c>
+      <c r="D47" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="E47" s="12">
+        <v>9.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="11" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B48" s="12">
         <v>3.0</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>96</v>
+      <c r="C48" s="12">
+        <v>3.1</v>
+      </c>
+      <c r="D48" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="E48" s="12">
+        <v>4.9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>100</v>
+        <v>68</v>
+      </c>
+      <c r="B49" s="12">
+        <v>6.3</v>
+      </c>
+      <c r="C49" s="12">
+        <v>6.3</v>
+      </c>
+      <c r="D49" s="12">
+        <v>6.4</v>
+      </c>
+      <c r="E49" s="12">
+        <v>5.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>103</v>
+        <v>69</v>
+      </c>
+      <c r="B50" s="12">
+        <v>4.1</v>
+      </c>
+      <c r="C50" s="12">
+        <v>4.9</v>
+      </c>
+      <c r="D50" s="12">
+        <v>4.9</v>
+      </c>
+      <c r="E50" s="12">
+        <v>5.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="11" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="B51" s="12">
         <v>1.0</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>86</v>
+      <c r="C51" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="D51" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="E51" s="12">
+        <v>0.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>109</v>
+        <v>71</v>
+      </c>
+      <c r="B52" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="C52" s="12">
+        <v>4.8</v>
+      </c>
+      <c r="D52" s="12">
+        <v>4.6</v>
+      </c>
+      <c r="E52" s="12">
+        <v>4.4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>72</v>
+      <c r="B53" s="12">
+        <v>9.9</v>
+      </c>
+      <c r="C53" s="12">
+        <v>10.2</v>
+      </c>
+      <c r="D53" s="12">
+        <v>10.1</v>
+      </c>
+      <c r="E53" s="12">
+        <v>10.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="B54" s="12">
+        <v>9.7</v>
+      </c>
+      <c r="C54" s="12">
+        <v>10.5</v>
+      </c>
+      <c r="D54" s="12">
+        <v>10.9</v>
+      </c>
+      <c r="E54" s="12">
+        <v>10.1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>120</v>
+        <v>74</v>
+      </c>
+      <c r="B55" s="12">
+        <v>12.1</v>
+      </c>
+      <c r="C55" s="12">
+        <v>12.2</v>
+      </c>
+      <c r="D55" s="12">
+        <v>11.8</v>
+      </c>
+      <c r="E55" s="12">
+        <v>11.3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>124</v>
+        <v>75</v>
+      </c>
+      <c r="B56" s="12">
+        <v>5.8</v>
+      </c>
+      <c r="C56" s="12">
+        <v>6.2</v>
+      </c>
+      <c r="D56" s="12">
+        <v>6.7</v>
+      </c>
+      <c r="E56" s="12">
+        <v>6.9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>126</v>
+        <v>76</v>
+      </c>
+      <c r="B57" s="12">
+        <v>4.2</v>
       </c>
       <c r="C57" s="12">
         <v>4.0</v>
       </c>
-      <c r="D57" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>127</v>
+      <c r="D57" s="12">
+        <v>4.1</v>
+      </c>
+      <c r="E57" s="12">
+        <v>4.5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>129</v>
+        <v>77</v>
+      </c>
+      <c r="B58" s="12">
+        <v>4.8</v>
+      </c>
+      <c r="C58" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="D58" s="12">
+        <v>4.8</v>
+      </c>
+      <c r="E58" s="12">
+        <v>5.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>132</v>
+        <v>78</v>
+      </c>
+      <c r="B59" s="12">
+        <v>2.1</v>
+      </c>
+      <c r="C59" s="12">
+        <v>2.3</v>
+      </c>
+      <c r="D59" s="12">
+        <v>2.3</v>
+      </c>
+      <c r="E59" s="12">
+        <v>2.3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>135</v>
+        <v>79</v>
+      </c>
+      <c r="B60" s="12">
+        <v>7.3</v>
+      </c>
+      <c r="C60" s="12">
+        <v>7.1</v>
+      </c>
+      <c r="D60" s="12">
+        <v>7.1</v>
       </c>
       <c r="E60" s="12">
         <v>7.0</v>
@@ -1293,16 +1080,16 @@
     </row>
     <row r="61">
       <c r="A61" s="11" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="B61" s="12">
         <v>5.0</v>
       </c>
-      <c r="C61" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>137</v>
+      <c r="C61" s="12">
+        <v>5.3</v>
+      </c>
+      <c r="D61" s="12">
+        <v>5.3</v>
       </c>
       <c r="E61" s="12">
         <v>5.0</v>
@@ -1310,84 +1097,84 @@
     </row>
     <row r="62">
       <c r="A62" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>141</v>
+        <v>81</v>
+      </c>
+      <c r="B62" s="12">
+        <v>8.9</v>
+      </c>
+      <c r="C62" s="12">
+        <v>9.2</v>
+      </c>
+      <c r="D62" s="12">
+        <v>9.1</v>
+      </c>
+      <c r="E62" s="12">
+        <v>8.8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>144</v>
+        <v>82</v>
+      </c>
+      <c r="B63" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="C63" s="12">
+        <v>8.4</v>
+      </c>
+      <c r="D63" s="12">
+        <v>8.1</v>
+      </c>
+      <c r="E63" s="12">
+        <v>7.9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>127</v>
+        <v>83</v>
+      </c>
+      <c r="B64" s="12">
+        <v>4.9</v>
+      </c>
+      <c r="C64" s="12">
+        <v>4.8</v>
+      </c>
+      <c r="D64" s="12">
+        <v>4.6</v>
+      </c>
+      <c r="E64" s="12">
+        <v>4.5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>150</v>
+        <v>84</v>
+      </c>
+      <c r="B65" s="12">
+        <v>17.3</v>
+      </c>
+      <c r="C65" s="12">
+        <v>17.1</v>
+      </c>
+      <c r="D65" s="12">
+        <v>17.2</v>
+      </c>
+      <c r="E65" s="12">
+        <v>17.6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>153</v>
+        <v>85</v>
+      </c>
+      <c r="B66" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C66" s="12">
+        <v>1.1</v>
+      </c>
+      <c r="D66" s="12">
+        <v>1.5</v>
       </c>
       <c r="E66" s="12">
         <v>2.0</v>
@@ -1395,19 +1182,19 @@
     </row>
     <row r="67">
       <c r="A67" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>157</v>
+        <v>86</v>
+      </c>
+      <c r="B67" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="C67" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="D67" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="E67" s="12">
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>

--- a/datastatic/datasets/online/SDG11_Modalsplit_passenger_transport_Trains_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/SDG11_Modalsplit_passenger_transport_Trains_EUROSTAT_2014.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D_Environment_Modal_Split_of_passenger_transport_Eurostat_2013.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D_Environment_Modal_Split_of_pa" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>

--- a/datastatic/datasets/online/SDG11_Modalsplit_passenger_transport_Trains_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/SDG11_Modalsplit_passenger_transport_Trains_EUROSTAT_2014.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t>original_title</t>
   </si>
@@ -154,6 +154,9 @@
     <t>source$note</t>
   </si>
   <si>
+    <t>This indicator is also proposed by the German Green party</t>
+  </si>
+  <si>
     <t>source$publisher</t>
   </si>
   <si>
@@ -169,13 +172,10 @@
     <t>source$value</t>
   </si>
   <si>
-    <t>OKF, Bundestagsfraktion der Grünen</t>
+    <t>OKF</t>
   </si>
   <si>
     <t>source$maintainer</t>
-  </si>
-  <si>
-    <t>OKF</t>
   </si>
   <si>
     <t>source$license</t>
@@ -628,38 +628,40 @@
       <c r="A30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="35">

--- a/datastatic/datasets/online/SDG11_Modalsplit_passenger_transport_Trains_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/SDG11_Modalsplit_passenger_transport_Trains_EUROSTAT_2014.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D_Environment_Modal_Split_of_passenger_transport_Eurostat_2013.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D_Environment_Modal_Split_of_pa" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t>original_title</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>source$note</t>
+  </si>
+  <si>
+    <t>This indicator is also proposed by the German Green party</t>
   </si>
   <si>
     <t>source$publisher</t>
@@ -625,51 +628,53 @@
       <c r="A30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37">
@@ -689,7 +694,7 @@
     </row>
     <row r="38">
       <c r="A38" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38" s="12">
         <v>7.7</v>
@@ -706,7 +711,7 @@
     </row>
     <row r="39">
       <c r="A39" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B39" s="12">
         <v>2.5</v>
@@ -723,7 +728,7 @@
     </row>
     <row r="40">
       <c r="A40" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B40" s="12">
         <v>8.4</v>
@@ -740,7 +745,7 @@
     </row>
     <row r="41">
       <c r="A41" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B41" s="12">
         <v>10.1</v>
@@ -757,7 +762,7 @@
     </row>
     <row r="42">
       <c r="A42" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B42" s="12">
         <v>8.5</v>
@@ -774,7 +779,7 @@
     </row>
     <row r="43">
       <c r="A43" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43" s="12">
         <v>1.9</v>
@@ -791,7 +796,7 @@
     </row>
     <row r="44">
       <c r="A44" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B44" s="12">
         <v>2.9</v>
@@ -808,7 +813,7 @@
     </row>
     <row r="45">
       <c r="A45" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B45" s="12">
         <v>0.9</v>
@@ -825,7 +830,7 @@
     </row>
     <row r="46">
       <c r="A46" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46" s="12">
         <v>6.5</v>
@@ -842,7 +847,7 @@
     </row>
     <row r="47">
       <c r="A47" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B47" s="12">
         <v>9.3</v>
@@ -859,7 +864,7 @@
     </row>
     <row r="48">
       <c r="A48" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B48" s="12">
         <v>3.0</v>
@@ -876,7 +881,7 @@
     </row>
     <row r="49">
       <c r="A49" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" s="12">
         <v>6.3</v>
@@ -893,7 +898,7 @@
     </row>
     <row r="50">
       <c r="A50" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" s="12">
         <v>4.1</v>
@@ -910,7 +915,7 @@
     </row>
     <row r="51">
       <c r="A51" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B51" s="12">
         <v>1.0</v>
@@ -927,7 +932,7 @@
     </row>
     <row r="52">
       <c r="A52" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B52" s="12">
         <v>4.3</v>
@@ -944,7 +949,7 @@
     </row>
     <row r="53">
       <c r="A53" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B53" s="12">
         <v>9.9</v>
@@ -961,7 +966,7 @@
     </row>
     <row r="54">
       <c r="A54" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B54" s="12">
         <v>9.7</v>
@@ -978,7 +983,7 @@
     </row>
     <row r="55">
       <c r="A55" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B55" s="12">
         <v>12.1</v>
@@ -995,7 +1000,7 @@
     </row>
     <row r="56">
       <c r="A56" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B56" s="12">
         <v>5.8</v>
@@ -1012,7 +1017,7 @@
     </row>
     <row r="57">
       <c r="A57" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B57" s="12">
         <v>4.2</v>
@@ -1029,7 +1034,7 @@
     </row>
     <row r="58">
       <c r="A58" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B58" s="12">
         <v>4.8</v>
@@ -1046,7 +1051,7 @@
     </row>
     <row r="59">
       <c r="A59" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B59" s="12">
         <v>2.1</v>
@@ -1063,7 +1068,7 @@
     </row>
     <row r="60">
       <c r="A60" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B60" s="12">
         <v>7.3</v>
@@ -1080,7 +1085,7 @@
     </row>
     <row r="61">
       <c r="A61" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B61" s="12">
         <v>5.0</v>
@@ -1097,7 +1102,7 @@
     </row>
     <row r="62">
       <c r="A62" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B62" s="12">
         <v>8.9</v>
@@ -1114,7 +1119,7 @@
     </row>
     <row r="63">
       <c r="A63" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B63" s="12">
         <v>8.5</v>
@@ -1131,7 +1136,7 @@
     </row>
     <row r="64">
       <c r="A64" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64" s="12">
         <v>4.9</v>
@@ -1148,7 +1153,7 @@
     </row>
     <row r="65">
       <c r="A65" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B65" s="12">
         <v>17.3</v>
@@ -1165,7 +1170,7 @@
     </row>
     <row r="66">
       <c r="A66" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B66" s="12">
         <v>0.9</v>
@@ -1182,7 +1187,7 @@
     </row>
     <row r="67">
       <c r="A67" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" s="12">
         <v>1.6</v>

--- a/datastatic/datasets/online/SDG11_Modalsplit_passenger_transport_Trains_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/SDG11_Modalsplit_passenger_transport_Trains_EUROSTAT_2014.xlsx
@@ -394,7 +394,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 

--- a/datastatic/datasets/online/SDG11_Modalsplit_passenger_transport_Trains_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/SDG11_Modalsplit_passenger_transport_Trains_EUROSTAT_2014.xlsx
@@ -394,7 +394,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
